--- a/data/inter_iit_data/address_cache.xlsx
+++ b/data/inter_iit_data/address_cache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3027,14 +3027,248 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>77 Town, Building No 3, Divya Shree Building, Yamalur Post, Marathahalli, Bangalore</t>
+          <t>82/3, Third Floor, Khata 866, Panathur Main Road, Bhoganahalli Cross, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>12.95633619967463</v>
+        <v>12.9365238</v>
       </c>
       <c r="C200" t="n">
-        <v>77.63248419999998</v>
+        <v>77.703783</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Embassy Tech Square Food Court, Cessna Tech Park, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>12.9365607</v>
+      </c>
+      <c r="C201" t="n">
+        <v>77.69424565</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>44, 3rd Cross, Marenahalli, 2nd Phase, JP Nagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>12.9135927</v>
+      </c>
+      <c r="C202" t="n">
+        <v>77.5873919</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>12.9137071</v>
+      </c>
+      <c r="C203" t="n">
+        <v>77.651623</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>12.9773122</v>
+      </c>
+      <c r="C204" t="n">
+        <v>77.635937</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2334, Aarush Arcade, 17th Cross, 1st Sector, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>12.9122542</v>
+      </c>
+      <c r="C205" t="n">
+        <v>77.63633109999999</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1659, 27th Main Road, Sector 2, HSR Layout, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>12.9099715</v>
+      </c>
+      <c r="C206" t="n">
+        <v>77.6518782</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>31st Main, Near NIFT, Sector 1, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>12.9142263</v>
+      </c>
+      <c r="C207" t="n">
+        <v>77.64850279999999</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>12.939411</v>
+      </c>
+      <c r="C208" t="n">
+        <v>77.6956204</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>12.9784031</v>
+      </c>
+      <c r="C209" t="n">
+        <v>77.6428765</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>12.97061675</v>
+      </c>
+      <c r="C210" t="n">
+        <v>77.64247155</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>12.9812177</v>
+      </c>
+      <c r="C211" t="n">
+        <v>77.63836924999998</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>12.9642548</v>
+      </c>
+      <c r="C212" t="n">
+        <v>77.6396656</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>12.9582041</v>
+      </c>
+      <c r="C213" t="n">
+        <v>77.69683295</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>12.97229415</v>
+      </c>
+      <c r="C214" t="n">
+        <v>77.63645034999999</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>12.9493888</v>
+      </c>
+      <c r="C215" t="n">
+        <v>77.6990131</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2318, Sector 1, Near NIFT College, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>12.91207225</v>
+      </c>
+      <c r="C216" t="n">
+        <v>77.65214435</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>697, 12th Cross, 27th Main, 1st Sector, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>12.916185</v>
+      </c>
+      <c r="C217" t="n">
+        <v>77.65142400000001</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>915, 24th Main Road, 2nd Phase, Mayura Circle, JP Nagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>12.9102386</v>
+      </c>
+      <c r="C218" t="n">
+        <v>77.58589619999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/inter_iit_data/address_cache.xlsx
+++ b/data/inter_iit_data/address_cache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.90910995</v>
+        <v>12.9115788</v>
       </c>
       <c r="C5" t="n">
-        <v>77.58575619999999</v>
+        <v>77.58571329999999</v>
       </c>
     </row>
     <row r="6">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.9060929</v>
+        <v>12.9063958</v>
       </c>
       <c r="C7" t="n">
-        <v>77.5868964</v>
+        <v>77.5886106</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.87839355</v>
+        <v>12.8897963</v>
       </c>
       <c r="C10" t="n">
-        <v>77.60469019999999</v>
+        <v>77.58558289999999</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.9070112</v>
+        <v>12.9506526</v>
       </c>
       <c r="C11" t="n">
-        <v>77.5983614</v>
+        <v>77.6392151</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.8993879</v>
+        <v>12.901773</v>
       </c>
       <c r="C12" t="n">
-        <v>77.59461499999999</v>
+        <v>77.594978</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.8969453</v>
+        <v>12.9088826</v>
       </c>
       <c r="C13" t="n">
-        <v>77.5859414</v>
+        <v>77.5857567</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.9070414</v>
+        <v>12.916563</v>
       </c>
       <c r="C14" t="n">
-        <v>77.6001406</v>
+        <v>77.583568</v>
       </c>
     </row>
     <row r="15">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.9196403</v>
+        <v>12.8978624</v>
       </c>
       <c r="C19" t="n">
-        <v>77.58856515000001</v>
+        <v>77.58450839999999</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.8971895</v>
+        <v>12.8982804</v>
       </c>
       <c r="C20" t="n">
-        <v>77.58890845000001</v>
+        <v>77.5858544</v>
       </c>
     </row>
     <row r="21">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.9007577</v>
+        <v>12.9052573</v>
       </c>
       <c r="C25" t="n">
-        <v>77.59495250000001</v>
+        <v>77.5841502</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.8878417</v>
+        <v>12.8838109</v>
       </c>
       <c r="C26" t="n">
-        <v>77.58174409999999</v>
+        <v>77.58295010000001</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.9031856</v>
+        <v>12.9037401</v>
       </c>
       <c r="C27" t="n">
-        <v>77.58649795000001</v>
+        <v>77.58704179999999</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.90619465</v>
+        <v>12.906285</v>
       </c>
       <c r="C28" t="n">
-        <v>77.5890462</v>
+        <v>77.5874455</v>
       </c>
     </row>
     <row r="29">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.89781115</v>
+        <v>12.9059478</v>
       </c>
       <c r="C31" t="n">
-        <v>77.58275734999998</v>
+        <v>77.60589229999999</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12.8905015</v>
+        <v>12.8890015</v>
       </c>
       <c r="C32" t="n">
-        <v>77.57615800000001</v>
+        <v>77.573385</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.8915085</v>
+        <v>12.8917914</v>
       </c>
       <c r="C33" t="n">
-        <v>77.57780959999999</v>
+        <v>77.577754</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.9061009</v>
+        <v>12.9066284</v>
       </c>
       <c r="C34" t="n">
-        <v>77.5924974</v>
+        <v>77.5930025</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.90778485</v>
+        <v>12.9123174</v>
       </c>
       <c r="C35" t="n">
-        <v>77.58713134999999</v>
+        <v>77.58784109999999</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.8896982</v>
+        <v>12.9003937</v>
       </c>
       <c r="C36" t="n">
-        <v>77.57807485000001</v>
+        <v>77.5858415</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.9080257</v>
+        <v>12.9003937</v>
       </c>
       <c r="C37" t="n">
-        <v>77.59262870000001</v>
+        <v>77.5858415</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.9080257</v>
+        <v>12.9156577</v>
       </c>
       <c r="C38" t="n">
-        <v>77.59262870000001</v>
+        <v>77.5994159</v>
       </c>
     </row>
     <row r="39">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.9101813</v>
+        <v>12.9113897</v>
       </c>
       <c r="C40" t="n">
-        <v>77.58654495</v>
+        <v>77.584992</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.9005855</v>
+        <v>12.8934943</v>
       </c>
       <c r="C41" t="n">
-        <v>77.5858447</v>
+        <v>77.5862456</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.8890974</v>
+        <v>12.8902416</v>
       </c>
       <c r="C42" t="n">
-        <v>77.58009629999999</v>
+        <v>77.58212879999999</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.9146517</v>
+        <v>12.9158698</v>
       </c>
       <c r="C43" t="n">
-        <v>77.5858169</v>
+        <v>77.58600819999999</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12.90407435</v>
+        <v>12.9032116</v>
       </c>
       <c r="C44" t="n">
-        <v>77.58579675000001</v>
+        <v>77.5877971</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12.9113334</v>
+        <v>12.9156577</v>
       </c>
       <c r="C45" t="n">
-        <v>77.59254695</v>
+        <v>77.5994159</v>
       </c>
     </row>
     <row r="46">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12.9460249</v>
+        <v>12.8872242</v>
       </c>
       <c r="C48" t="n">
-        <v>77.60499824999999</v>
+        <v>77.58182599999999</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12.8938441</v>
+        <v>12.8921504</v>
       </c>
       <c r="C49" t="n">
-        <v>77.63087969999999</v>
+        <v>77.6282442</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.92154</v>
+        <v>12.9481544</v>
       </c>
       <c r="C50" t="n">
-        <v>77.6277338</v>
+        <v>77.5971734</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>12.9146014</v>
+        <v>12.961331</v>
       </c>
       <c r="C51" t="n">
-        <v>77.6448085</v>
+        <v>77.57007399999999</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>12.9194511</v>
       </c>
       <c r="C52" t="n">
-        <v>77.64874429999999</v>
+        <v>77.6487443</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>12.9161365</v>
+        <v>12.910037</v>
       </c>
       <c r="C53" t="n">
-        <v>77.65169739999999</v>
+        <v>77.6516807</v>
       </c>
     </row>
     <row r="54">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12.90342255</v>
+        <v>12.9069779</v>
       </c>
       <c r="C55" t="n">
-        <v>77.64762434999999</v>
+        <v>77.6634925</v>
       </c>
     </row>
     <row r="56">
@@ -1168,293 +1168,293 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>27th Main, Near NIFT, Sector-1, HSR, Bangalore</t>
+          <t>2318, 27th Main Road, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12.911455</v>
+        <v>12.9121594</v>
       </c>
       <c r="C57" t="n">
-        <v>77.65208865</v>
+        <v>77.6516733</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2318, 27th Main Road, 1st Sector, HSR, Bangalore</t>
+          <t>569/4, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.9121594</v>
+        <v>12.9257303</v>
       </c>
       <c r="C58" t="n">
-        <v>77.6516733</v>
+        <v>77.66516489999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>569/4, Sector 1, HSR, Bangalore</t>
+          <t>1554, Ground Floor, 19th Main, Sector - 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>12.911455</v>
+        <v>12.961331</v>
       </c>
       <c r="C59" t="n">
-        <v>77.65189645000001</v>
+        <v>77.57007399999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1554, Ground Floor, 19th Main, Sector - 1, HSR, Bangalore</t>
+          <t>2733, 16th Cross, 27th Main, Opposite NIFT, Sector 1, HSR Layout, Bangalore, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12.9146014</v>
+        <v>12.912702</v>
       </c>
       <c r="C60" t="n">
-        <v>77.64821085000001</v>
+        <v>77.652479</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2733, 16th Cross, 27th Main, Opposite NIFT, Sector 1, HSR Layout, Bangalore, HSR, Bangalore</t>
+          <t>543, 7th Cross, 24th Main, Opposite Nous Info Systems, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12.912702</v>
+        <v>12.9196367</v>
       </c>
       <c r="C61" t="n">
-        <v>77.652479</v>
+        <v>77.64947529999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>543, 7th Cross, 24th Main, Opposite Nous Info Systems, Sector 1, HSR, Bangalore</t>
+          <t>13th Cross, 24th Main, Opposite Assetz Apartment, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12.9196367</v>
+        <v>12.91615</v>
       </c>
       <c r="C62" t="n">
-        <v>77.64947529999999</v>
+        <v>77.6488823</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>13th Cross, 24th Main, Opposite Assetz Apartment, 1st Sector, HSR, Bangalore</t>
+          <t>7th Cross Road, Agara Village, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12.91615</v>
+        <v>12.9194418</v>
       </c>
       <c r="C63" t="n">
-        <v>77.6488823</v>
+        <v>77.647291</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7th Cross Road, Agara Village, 1st Sector, HSR, Bangalore</t>
+          <t>680-669, 13th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12.9194418</v>
+        <v>12.9159261</v>
       </c>
       <c r="C64" t="n">
-        <v>77.647291</v>
+        <v>77.6497332</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>680-669, 13th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka</t>
+          <t>2724, 31st Main, 17th Cross, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12.9159261</v>
+        <v>12.9126877</v>
       </c>
       <c r="C65" t="n">
-        <v>77.6497332</v>
+        <v>77.65327689999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2724, 31st Main, 17th Cross, HSR, Bangalore</t>
+          <t>1543, 7th Cross, 19th Main, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>12.9126877</v>
+        <v>12.9196402</v>
       </c>
       <c r="C66" t="n">
-        <v>77.65327689999999</v>
+        <v>77.64447919999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1543, 7th Cross, 19th Main, 1st Sector, HSR, Bangalore</t>
+          <t>1214, 17th Cross Road, Parangi Palaya, Sector 2, HSR Layout, Bangalore</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>12.9196402</v>
+        <v>12.9121301</v>
       </c>
       <c r="C67" t="n">
-        <v>77.64447919999999</v>
+        <v>77.650205</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1214, 17th Cross Road, Parangi Palaya, Sector 2, HSR Layout, Bangalore</t>
+          <t>Basement 2064, Siri Iris Building, 24th Main, N.R.T.A Enclave, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>12.9121301</v>
+        <v>12.9154599</v>
       </c>
       <c r="C68" t="n">
-        <v>77.650205</v>
+        <v>77.6491032</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Basement 2064, Siri Iris Building, 24th Main, N.R.T.A Enclave, HSR, Bangalore</t>
+          <t>809/A, 27th Main, 100 Feet Road, 1st Sector, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12.9154599</v>
+        <v>12.9104699</v>
       </c>
       <c r="C69" t="n">
-        <v>77.6491032</v>
+        <v>77.6139457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>809/A, 27th Main, 100 Feet Road, 1st Sector, HSR, Bangalore</t>
+          <t>Building 2686, 31 Main, 13 Cross, Sector 1, Behind CPWD Quarters, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12.93405115</v>
+        <v>12.9096504</v>
       </c>
       <c r="C70" t="n">
-        <v>77.64545445</v>
+        <v>77.65330279999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Building 2686, 31 Main, 13 Cross, Sector 1, Behind CPWD Quarters, HSR Layout, HSR, Bangalore</t>
+          <t>191, Ground Floor, 27th Main Road, Near CPWD Quarters, Beside Lawrance &amp; Mayo, Sector 2, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12.9096504</v>
+        <v>12.9119893</v>
       </c>
       <c r="C71" t="n">
-        <v>77.65330279999999</v>
+        <v>77.651832</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>191, Ground Floor, 27th Main Road, Near CPWD Quarters, Beside Lawrance &amp; Mayo, Sector 2, HSR, Bangalore</t>
+          <t>2633, 27th Main, 13th Cross, 1st Sector, Liss Arcade, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12.9119893</v>
+        <v>12.9156333</v>
       </c>
       <c r="C72" t="n">
-        <v>77.651832</v>
+        <v>77.6516664</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2633, 27th Main, 13th Cross, 1st Sector, Liss Arcade, HSR, Bangalore</t>
+          <t>1548, 19th Main, Outer Ring Road, Opposite BMTC Bus Depot, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12.9158833</v>
+        <v>12.9202927</v>
       </c>
       <c r="C73" t="n">
-        <v>77.6517474</v>
+        <v>77.6451278</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1548, 19th Main, Outer Ring Road, Opposite BMTC Bus Depot, HSR, Bangalore</t>
+          <t>2733, 16th Cross, 27th Main Road, Oppsite, NIFT College, 1st Sector, HSR Layout, Bangalore</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12.9202927</v>
+        <v>12.912702</v>
       </c>
       <c r="C74" t="n">
-        <v>77.6451278</v>
+        <v>77.652479</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2733, 16th Cross, 27th Main Road, Oppsite, NIFT College, 1st Sector, HSR Layout, Bangalore</t>
+          <t>2610, 27th Main, Near NIFT, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12.912702</v>
+        <v>12.9129272</v>
       </c>
       <c r="C75" t="n">
-        <v>77.652479</v>
+        <v>77.65164729999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2610, 27th Main, Near NIFT, HSR Layout, HSR, Bangalore</t>
+          <t>1, 328, 27th Main, 21st Cross, Sector 2, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12.9129272</v>
+        <v>12.9042116</v>
       </c>
       <c r="C76" t="n">
-        <v>77.65164729999999</v>
+        <v>77.6507228</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1, 328, 27th Main, 21st Cross, Sector 2, HSR, Bangalore</t>
+          <t>49, Agara Circle, Near Hanuman Statue, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>12.9065656</v>
+        <v>12.9236427</v>
       </c>
       <c r="C77" t="n">
-        <v>77.65129979999999</v>
+        <v>77.64972109999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>49, Agara Circle, Near Hanuman Statue, HSR Layout, HSR, Bangalore</t>
+          <t>Opposite NIFT College, 2733, 16th Cross, 27th Main Road, PWD Quarters, 1st Sector, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12.9240881</v>
+        <v>12.912702</v>
       </c>
       <c r="C78" t="n">
-        <v>77.6496264</v>
+        <v>77.652479</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Opposite NIFT College, 2733, 16th Cross, 27th Main Road, PWD Quarters, 1st Sector, HSR Layout, HSR, Bangalore</t>
+          <t>#2733, 16th Cross, 27th Main, Opppsite NIFT College, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,1372 +1467,1372 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#2733, 16th Cross, 27th Main, Opppsite NIFT College, Sector 1, HSR, Bangalore</t>
+          <t>Next to Grigliato, Sector 1 , HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>12.912702</v>
+        <v>12.9221548</v>
       </c>
       <c r="C80" t="n">
-        <v>77.652479</v>
+        <v>77.64537109999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Next to Grigliato, Sector 1 , HSR Layout, HSR, Bangalore</t>
+          <t>2606, Ground Floor, The Ambience Building, 16th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12.9183401</v>
+        <v>12.9125829</v>
       </c>
       <c r="C81" t="n">
-        <v>77.65439259999999</v>
+        <v>77.6514055</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2606, Ground Floor, The Ambience Building, 16th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
+          <t>2802, 27th Main Road, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12.91300745</v>
+        <v>12.9232993</v>
       </c>
       <c r="C82" t="n">
-        <v>77.6516635</v>
+        <v>77.65142539999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2802, 27th Main Road, Sector 1, HSR, Bangalore</t>
+          <t>1562, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12.9232993</v>
+        <v>12.9175337</v>
       </c>
       <c r="C83" t="n">
-        <v>77.65142539999999</v>
+        <v>77.65045719999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1562, Sector 1, HSR, Bangalore</t>
+          <t>2738, 27th Main, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12.9117419</v>
+        <v>12.912786</v>
       </c>
       <c r="C84" t="n">
-        <v>77.64454494999998</v>
+        <v>77.65202960000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2738, 27th Main, Sector 1, HSR, Bangalore</t>
+          <t>646, 12th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12.912786</v>
+        <v>12.9163356</v>
       </c>
       <c r="C85" t="n">
-        <v>77.65202960000001</v>
+        <v>77.6521815</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>646, 12th Cross, 27th Main, Sector 1, HSR, Bangalore</t>
+          <t>647, Ground Floor, 27th Main Road, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12.9163356</v>
+        <v>12.9119893</v>
       </c>
       <c r="C86" t="n">
-        <v>77.6521815</v>
+        <v>77.651832</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>647, Ground Floor, 27th Main Road, Sector 1, HSR, Bangalore</t>
+          <t>191, First Floor, 27th Main, Sector 2, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12.9166635</v>
+        <v>12.9079765</v>
       </c>
       <c r="C87" t="n">
-        <v>77.65122074999999</v>
+        <v>77.65172370000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>191, First Floor, 27th Main, Sector 2, HSR, Bangalore</t>
+          <t>2317, 27th Main, Sector 1, Opposite NIFT College, HSR Layout, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12.9114422</v>
+        <v>12.9124495</v>
       </c>
       <c r="C88" t="n">
-        <v>77.6436266</v>
+        <v>77.65167629999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2317, 27th Main, Sector 1, Opposite NIFT College, HSR Layout, HSR, Bangalore</t>
+          <t>2628, 27th Main Road, 1st Sector, HSR Layout, Bangalore, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>12.9124495</v>
+        <v>12.915173</v>
       </c>
       <c r="C89" t="n">
-        <v>77.65167629999999</v>
+        <v>77.65158799999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2628, 27th Main Road, 1st Sector, HSR Layout, Bangalore, HSR, Bangalore</t>
+          <t>780, 12th Cross, 19th Main, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12.915173</v>
+        <v>12.9163752</v>
       </c>
       <c r="C90" t="n">
-        <v>77.65158799999999</v>
+        <v>77.6497418</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>780, 12th Cross, 19th Main, HSR, Bangalore</t>
+          <t>2606, The Ambience, 27th Main Road, 16th cross, HSR Layout</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>12.9088484</v>
+        <v>12.9125829</v>
       </c>
       <c r="C91" t="n">
-        <v>77.6469225</v>
+        <v>77.6514055</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2606, The Ambience, 27th Main Road, 16th cross, HSR Layout</t>
+          <t>331, Ground Floor, 27th Main, 2nd Stage, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>12.9118354</v>
+        <v>12.9119893</v>
       </c>
       <c r="C92" t="n">
-        <v>77.64116285</v>
+        <v>77.651832</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>331, Ground Floor, 27th Main, 2nd Stage, HSR, Bangalore</t>
+          <t>1548, 3rd Floor,19th Main Road, Sector 1, Agara Village, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>12.9117628</v>
+        <v>12.9189625</v>
       </c>
       <c r="C93" t="n">
-        <v>77.64464529999999</v>
+        <v>77.6449137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1548, 3rd Floor,19th Main Road, Sector 1, Agara Village, HSR, Bangalore</t>
+          <t>Shop 339, 27th Main Road, HSR Layout Sector 2, Bangalore</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12.9202826</v>
+        <v>12.9078089</v>
       </c>
       <c r="C94" t="n">
-        <v>77.64518120000001</v>
+        <v>77.651859</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Shop 339, 27th Main Road, HSR Layout Sector 2, Bangalore</t>
+          <t>1558, 19th Main, Ring Road, Near Indian Oil Petrol Bunk, Sector 1, HSR, Bangalore</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12.9078089</v>
+        <v>12.92178</v>
       </c>
       <c r="C95" t="n">
-        <v>77.651859</v>
+        <v>77.64519439999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1558, 19th Main, Ring Road, Near Indian Oil Petrol Bunk, Sector 1, HSR, Bangalore</t>
+          <t>712, 6th Cross, 5th Main, Off 80 Feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>12.9215736</v>
+        <v>12.9758079</v>
       </c>
       <c r="C96" t="n">
-        <v>77.64500575000001</v>
+        <v>77.6467327</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>712, 6th Cross, 5th Main, Off 80 Feet Road, Indiranagar, Bangalore</t>
+          <t>14, 2nd Floor, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>12.98631945</v>
+        <v>12.9520783</v>
       </c>
       <c r="C97" t="n">
-        <v>77.60723295000001</v>
+        <v>77.6927055</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>14, 2nd Floor, Church Street, Bangalore</t>
+          <t>First Floor, 14, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>12.9662983</v>
+        <v>12.9752302</v>
       </c>
       <c r="C98" t="n">
-        <v>77.59856149999999</v>
+        <v>77.60346220000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>First Floor, 14, Church Street, Bangalore</t>
+          <t>36, Off MG Road, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>12.9752302</v>
+        <v>12.9739924</v>
       </c>
       <c r="C99" t="n">
-        <v>77.60346220000001</v>
+        <v>77.6124456</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>36, Off MG Road, Church Street, Bangalore</t>
+          <t>42, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>12.9753943</v>
+        <v>12.9757954</v>
       </c>
       <c r="C100" t="n">
-        <v>77.60280720000002</v>
+        <v>77.6019081</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>42, Church Street, Bangalore</t>
+          <t>33, High Gates Hotel, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>12.9757954</v>
+        <v>12.975079</v>
       </c>
       <c r="C101" t="n">
-        <v>77.6019081</v>
+        <v>77.603155</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>33, High Gates Hotel, Church Street, Bangalore</t>
+          <t>2, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>12.975079</v>
+        <v>12.9746635</v>
       </c>
       <c r="C102" t="n">
-        <v>77.603155</v>
+        <v>77.60765219999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2, Church Street, Bangalore</t>
+          <t>46, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>12.9746635</v>
+        <v>12.9757082</v>
       </c>
       <c r="C103" t="n">
-        <v>77.60765219999999</v>
+        <v>77.6023934</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>46, Church Street, Bangalore</t>
+          <t>9/3, Prestige Pearl House, Museum Road, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>12.9757082</v>
+        <v>12.9735121</v>
       </c>
       <c r="C104" t="n">
-        <v>77.6023934</v>
+        <v>77.60334499999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9/3, Prestige Pearl House, Museum Road, Church Street, Bangalore</t>
+          <t>1A, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>12.9735121</v>
+        <v>12.9740428</v>
       </c>
       <c r="C105" t="n">
-        <v>77.60334499999999</v>
+        <v>77.60713749999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1A, Church Street, Bangalore</t>
+          <t>G-005, City Centre, 28/4, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>12.9740428</v>
+        <v>12.9756472</v>
       </c>
       <c r="C106" t="n">
-        <v>77.60713749999999</v>
+        <v>77.60225369999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>G-005, City Centre, 28/4, Church Street, Bangalore</t>
+          <t>22, Amoeba Complex, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>12.9539974</v>
+        <v>12.9746781</v>
       </c>
       <c r="C107" t="n">
-        <v>77.6309395</v>
+        <v>77.60490279999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>22, Amoeba Complex, Church Street, Bangalore</t>
+          <t>Church Street</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12.9746781</v>
+        <v>12.9743127</v>
       </c>
       <c r="C108" t="n">
-        <v>77.60490279999999</v>
+        <v>77.60771630000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Church Street</t>
+          <t>24, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>12.9743127</v>
+        <v>12.974685</v>
       </c>
       <c r="C109" t="n">
-        <v>77.60771629999999</v>
+        <v>77.605791</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>24, Church Street, Bangalore</t>
+          <t>765, 1st Floor, 1st Main, Domlur Layout, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>12.974685</v>
+        <v>12.9599925</v>
       </c>
       <c r="C110" t="n">
-        <v>77.605791</v>
+        <v>77.6407538</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>765, 1st Floor, 1st Main, Domlur Layout, Domlur, Bangalore</t>
+          <t>8/ 9, 17th F Cross, 2nd Stage, Indiranagar, Bengaluru</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>12.960308</v>
+        <v>12.9771437</v>
       </c>
       <c r="C111" t="n">
-        <v>77.6371659</v>
+        <v>77.63256419999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>8/ 9, 17th F Cross, 2nd Stage, Indiranagar, Bengaluru</t>
+          <t>Next to CMH Metro Station, CMH Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12.9712751</v>
+        <v>12.9778862</v>
       </c>
       <c r="C112" t="n">
-        <v>77.64067249999999</v>
+        <v>77.64619789999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Next to CMH Metro Station, CMH Road, Indiranagar, Bangalore</t>
+          <t>Ground Floor, Sri Shiva Sai Complex, 13th Cross, 7th Main, 2nd Stage, HAL, Off Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>12.97500077977864</v>
+        <v>12.9786738</v>
       </c>
       <c r="C113" t="n">
-        <v>77.60632369350577</v>
+        <v>77.6362003</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ground Floor, Sri Shiva Sai Complex, 13th Cross, 7th Main, 2nd Stage, HAL, Off Double Road, Indiranagar, Bangalore</t>
+          <t>Domlur, Bangalore</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12.9713929</v>
+        <v>12.9609857</v>
       </c>
       <c r="C114" t="n">
-        <v>77.63504159999999</v>
+        <v>77.6387316</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Domlur, Bangalore</t>
+          <t>Shop 6, First Floor, Binnamangala First Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>12.96297955</v>
+        <v>12.9809038</v>
       </c>
       <c r="C115" t="n">
-        <v>77.63562040000001</v>
+        <v>77.6398129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Shop 6, First Floor, Binnamangala First Stage, Indiranagar, Bangalore</t>
+          <t>970, 12th Main, 5th Cross, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>12.97647355</v>
+        <v>12.969924</v>
       </c>
       <c r="C116" t="n">
-        <v>77.64082689999999</v>
+        <v>77.6388704</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>970, 12th Main, 5th Cross, Indiranagar, Bangalore</t>
+          <t>1088, 12th Main, HAL 2nd Stage, Off 100 Feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12.969924</v>
+        <v>12.9699142</v>
       </c>
       <c r="C117" t="n">
-        <v>77.6388704</v>
+        <v>77.6379417</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1088, 12th Main, HAL 2nd Stage, Off 100 Feet Road, Indiranagar, Bangalore</t>
+          <t>181, 3rd Floor, Amar Jyothi Layout, Inner Ring Road, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>12.97354555</v>
+        <v>12.9539498</v>
       </c>
       <c r="C118" t="n">
-        <v>77.64271644999999</v>
+        <v>77.64108899999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>181, 3rd Floor, Amar Jyothi Layout, Inner Ring Road, Domlur, Bangalore</t>
+          <t>544, First Floor, Near Indiranagar Metro Station, CMH Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>12.9786531</v>
+        <v>12.9782619</v>
       </c>
       <c r="C119" t="n">
-        <v>77.64208699999999</v>
+        <v>77.63852570000002</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>544, First Floor, Near Indiranagar Metro Station, CMH Road, Indiranagar, Bangalore</t>
+          <t>212/A, 1st Main Road, Stage 2, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>12.9780919</v>
+        <v>12.9653791</v>
       </c>
       <c r="C120" t="n">
-        <v>77.63785589999999</v>
+        <v>77.63803399999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>212/A, 1st Main Road, Stage 2, Indiranagar, Bangalore</t>
+          <t>598, 1st floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>12.8454687</v>
+        <v>12.9600892</v>
       </c>
       <c r="C121" t="n">
-        <v>77.66498009999999</v>
+        <v>77.63571109999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>598, 1st floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
+          <t>197/A, Double Road, 2nd Stage, Opposite HDFC Bank, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12.9600892</v>
+        <v>12.9613059</v>
       </c>
       <c r="C122" t="n">
-        <v>77.63571109999999</v>
+        <v>77.6366221</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>197/A, Double Road, 2nd Stage, Opposite HDFC Bank, Indiranagar, Bangalore</t>
+          <t>4, 39/1, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>12.9748412</v>
+        <v>13.0139955</v>
       </c>
       <c r="C123" t="n">
-        <v>77.5994346</v>
+        <v>77.5089961</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4, 39/1, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
+          <t>48, Triumph Towers, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>12.97515995</v>
+        <v>12.975507</v>
       </c>
       <c r="C124" t="n">
-        <v>77.63261195</v>
+        <v>77.60314799999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>48, Triumph Towers, Church Street, Bangalore</t>
+          <t>Srinivasan Towers, ESI Hospital Road, Off Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>12.97565035</v>
+        <v>12.9588109</v>
       </c>
       <c r="C125" t="n">
-        <v>77.60308845</v>
+        <v>77.5927009</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Srinivasan Towers, ESI Hospital Road, Off Double Road, Indiranagar, Bangalore</t>
+          <t>Number 4 St Mary's Building, 39/1, 2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>12.9707442</v>
+        <v>12.9783692</v>
       </c>
       <c r="C126" t="n">
-        <v>77.636391</v>
+        <v>77.6408356</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Number 4 St Mary's Building, 39/1, 2nd Stage, Indiranagar, Bangalore</t>
+          <t>949, Ground Floor, HAL 2nd Stage, 12th Main, 100 feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12.8509794</v>
+        <v>12.970274</v>
       </c>
       <c r="C127" t="n">
-        <v>77.6834296</v>
+        <v>77.64138699999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>949, Ground Floor, HAL 2nd Stage, 12th Main, 100 feet Road, Indiranagar, Bangalore</t>
+          <t>50/1, Haridevpur, Shantala Nagar, Ashok Nagar, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>12.9702745</v>
+        <v>12.9749903</v>
       </c>
       <c r="C128" t="n">
-        <v>77.6391824</v>
+        <v>77.6047836</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>50/1, Haridevpur, Shantala Nagar, Ashok Nagar, Church Street, Bangalore</t>
+          <t>1324, Double Road, 2nd Stage, Opposite Cauvery School, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12.9750562</v>
+        <v>12.9750224</v>
       </c>
       <c r="C129" t="n">
-        <v>77.60461760000001</v>
+        <v>77.64493019999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1324, Double Road, 2nd Stage, Opposite Cauvery School, Indiranagar, Bangalore</t>
+          <t>1083, 12th main, 5th Cross, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>12.9760954</v>
+        <v>12.9699539</v>
       </c>
       <c r="C130" t="n">
-        <v>77.63672029999999</v>
+        <v>77.638717</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1083, 12th main, 5th Cross, Indiranagar, Bangalore</t>
+          <t>949, 12th Main, Ground Floor, Off 100 Feet Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>12.9699539</v>
+        <v>12.970274</v>
       </c>
       <c r="C131" t="n">
-        <v>77.638717</v>
+        <v>77.64138699999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>949, 12th Main, Ground Floor, Off 100 Feet Road, Indiranagar, Bangalore</t>
+          <t>2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>12.9701997</v>
+        <v>12.9620069</v>
       </c>
       <c r="C132" t="n">
-        <v>77.6391119</v>
+        <v>77.63437669999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2nd Stage, Indiranagar, Bangalore</t>
+          <t>3217, 13th Cross, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>12.962059</v>
+        <v>12.9727187</v>
       </c>
       <c r="C133" t="n">
-        <v>77.63513924999999</v>
+        <v>77.63514049999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3217, 13th Cross, Indiranagar, Bangalore</t>
+          <t>12th Main, HAL 2nd Stage, ESI To Domlur, Service Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>12.9727187</v>
+        <v>12.9614154</v>
       </c>
       <c r="C134" t="n">
-        <v>77.63514049999999</v>
+        <v>77.63490969999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>12th Main, HAL 2nd Stage, ESI To Domlur, Service Road, Indiranagar, Bangalore</t>
+          <t>12th Main Road Junction, Double Road, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>12.96605175</v>
+        <v>12.9698507</v>
       </c>
       <c r="C135" t="n">
-        <v>77.63814884999999</v>
+        <v>77.6359686</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>12th Main Road Junction, Double Road, Indiranagar, Bangalore</t>
+          <t>4, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>12.9698507</v>
+        <v>12.9698565</v>
       </c>
       <c r="C136" t="n">
-        <v>77.6359686</v>
+        <v>77.7515638</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>4, St Mary's Building, 2nd Stage, Indiranagar, Bangalore</t>
+          <t>46/1, Cobalt Building, Church Street, Bangalore</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>12.9723269</v>
+        <v>12.9748809</v>
       </c>
       <c r="C137" t="n">
-        <v>77.6397374</v>
+        <v>77.6056454</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>46/1, Cobalt Building, Church Street, Bangalore</t>
+          <t>39/7, 5th Cross, 6th Main, Appareddy Palya, Indiranagar, Bangalore</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>12.97537889967663</v>
+        <v>13.0116344</v>
       </c>
       <c r="C138" t="n">
-        <v>77.6027175</v>
+        <v>77.6485005</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>39/7, 5th Cross, 6th Main, Appareddy Palya, Indiranagar, Bangalore</t>
+          <t>949, 12th Main Rd, Appareddipalya, Indiranagar, Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>12.9714145</v>
+        <v>12.9701997</v>
       </c>
       <c r="C139" t="n">
-        <v>77.64093680000001</v>
+        <v>77.6391119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>949, 12th Main Rd, Appareddipalya, Indiranagar, Bengaluru, Karnataka</t>
+          <t>598, 1st Floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>12.9701997</v>
+        <v>12.9600892</v>
       </c>
       <c r="C140" t="n">
-        <v>77.6391119</v>
+        <v>77.63571109999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>598, 1st Floor, 1st Cross, 1st A Main Road, Domlur Layout, 1st Stage, Domlur, Bangalore</t>
+          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>12.9546798</v>
+        <v>13.0017902</v>
       </c>
       <c r="C141" t="n">
-        <v>77.6385275</v>
+        <v>77.7231486</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2/1 Unit 6, Hoodi Kodigehalli Road, Opposite Crystal Apartment, KR Puram, Bangalore</t>
+          <t>39, Aiyaapanagar Main Road, Near Krishna Community Hall, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>13.0043944</v>
+        <v>13.0031532</v>
       </c>
       <c r="C142" t="n">
-        <v>77.68837495</v>
+        <v>77.71262419999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>39, Aiyaapanagar Main Road, Near Krishna Community Hall, KR Puram, Bangalore</t>
+          <t>92, Kodigehalli Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>13.0031532</v>
+        <v>13.004608</v>
       </c>
       <c r="C143" t="n">
-        <v>77.71262419999999</v>
+        <v>77.7140429</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>92, Kodigehalli Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
+          <t>Devasandra Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>13.004608</v>
+        <v>13.0043122</v>
       </c>
       <c r="C144" t="n">
-        <v>77.7140429</v>
+        <v>77.7103151</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Devasandra Main Road, Ayyappa Nagar, KR Puram, Bangalore</t>
+          <t>92, Ground Floor, Muninanjappa Gardens, Kodigehalli Main Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13.0043122</v>
+        <v>13.003555</v>
       </c>
       <c r="C145" t="n">
-        <v>77.71031510000002</v>
+        <v>77.7245487</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>92, Ground Floor, Muninanjappa Gardens, Kodigehalli Main Road, KR Puram, Bangalore</t>
+          <t>Coconut Garden Layout, Kodigehalli Main Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>13.0053037</v>
+        <v>13.0034826</v>
       </c>
       <c r="C146" t="n">
-        <v>77.7205317</v>
+        <v>77.7175524</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Coconut Garden Layout, Kodigehalli Main Road, KR Puram, Bangalore</t>
+          <t>21/28, Radhakrishna Nilaya, Opp SEA Institutions, Ayappa Nagar, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>13.0034826</v>
+        <v>12.9998189</v>
       </c>
       <c r="C147" t="n">
-        <v>77.7175524</v>
+        <v>77.7151616</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>21/28, Radhakrishna Nilaya, Opp SEA Institutions, Ayappa Nagar, KR Puram, Bangalore</t>
+          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>13.000251</v>
+        <v>13.0044944</v>
       </c>
       <c r="C148" t="n">
-        <v>77.6921979</v>
+        <v>77.71258709999999</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
+          <t>76, Shruthi Layout, Basavanapura Main Road, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>13.0044944</v>
+        <v>13.0103509</v>
       </c>
       <c r="C149" t="n">
-        <v>77.71258709999999</v>
+        <v>77.7034883</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>76, Shruthi Layout, Basavanapura Main Road, KR Puram, Bangalore</t>
+          <t>Shop 2, Kodigahalli Main Road, KR Puram</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>12.99136615</v>
+        <v>13.0077274</v>
       </c>
       <c r="C150" t="n">
-        <v>77.71342894999999</v>
+        <v>77.7342053</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>7, Anurhh Arcade, Hoodi Road, Kodigehalli Road, KR Puram, Bangalore</t>
+          <t>44, Kodigehalli to Hoodi Main Road, Mahadevapura Post, KR Puram, Bangalore</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>13.0044673</v>
+        <v>12.9860236</v>
       </c>
       <c r="C151" t="n">
-        <v>77.71483099999999</v>
+        <v>77.7084196</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Shop 2, Kodigahalli Main Road, KR Puram</t>
+          <t>Near Bank Of India ATM, Ramka Colony, Bilekahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>13.0077274</v>
+        <v>12.9019819</v>
       </c>
       <c r="C152" t="n">
-        <v>77.7342053</v>
+        <v>77.6042056</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>44, Kodigehalli to Hoodi Main Road, Mahadevapura Post, KR Puram, Bangalore</t>
+          <t>595, Ground Floor, Kundalahalli, Varthur Hobli Mahadevpura, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>13.02474365</v>
+        <v>12.955812</v>
       </c>
       <c r="C153" t="n">
-        <v>77.6541051</v>
+        <v>77.713686</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Near Bank Of India ATM, Ramka Colony, Bilekahalli, Marathahalli, Bangalore</t>
+          <t>20/7, Swamy Legato, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>12.9032109</v>
+        <v>12.9389269</v>
       </c>
       <c r="C154" t="n">
-        <v>77.60277809999999</v>
+        <v>77.6946805</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>595, Ground Floor, Kundalahalli, Varthur Hobli Mahadevpura, Marathahalli, Bangalore</t>
+          <t>20\5, Panathur Junction, Outer Ring Road, Kadubeessanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>12.9560586</v>
+        <v>12.9399931</v>
       </c>
       <c r="C155" t="n">
-        <v>77.693026</v>
+        <v>77.6962218</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20/7, Swamy Legato, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>20/5, 1st Floor, Panathur Junction, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>12.9393876</v>
+        <v>12.9399931</v>
       </c>
       <c r="C156" t="n">
-        <v>77.6947378</v>
+        <v>77.6962218</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20\5, Panathur Junction, Outer Ring Road, Kadubeessanahalli, Marathahalli, Bangalore</t>
+          <t>Ibis Bengaluru, Opposite RMZ Ecospace Business Park, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>12.93869875</v>
+        <v>12.929739</v>
       </c>
       <c r="C157" t="n">
-        <v>77.69511069999999</v>
+        <v>77.68310199999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20/5, 1st Floor, Panathur Junction, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>10/3, Devarabeesanahali, Outer Ring Road, Opposite Embassy Tech Park, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>12.93451285</v>
+        <v>12.9267407</v>
       </c>
       <c r="C158" t="n">
-        <v>77.6908004</v>
+        <v>77.6895485</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ibis Bengaluru, Opposite RMZ Ecospace Business Park, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Shop 37, 3rd Cross, Outer Ring Road, Kadubisnahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>12.9298152</v>
+        <v>12.9063438</v>
       </c>
       <c r="C159" t="n">
-        <v>77.68328629999999</v>
+        <v>77.5711549</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>10/3, Devarabeesanahali, Outer Ring Road, Opposite Embassy Tech Park, Marathahalli, Bangalore</t>
+          <t>2nd Floor, All Season Super Market Building, Panathur Road, Kadubeesanahalli, Panathur, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12.98894285</v>
+        <v>12.9371973</v>
       </c>
       <c r="C160" t="n">
-        <v>77.65813505000001</v>
+        <v>77.70246539999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Shop 37, 3rd Cross, Outer Ring Road, Kadubisnahalli, Marathahalli, Bangalore</t>
+          <t>89/1, Tulasi Theater Road, Near SBR Palace, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>12.9492105</v>
+        <v>12.9499232</v>
       </c>
       <c r="C161" t="n">
-        <v>77.7006796</v>
+        <v>77.6976686</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2nd Floor, All Season Super Market Building, Panathur Road, Kadubeesanahalli, Panathur, Marathahalli, Bangalore</t>
+          <t>20/5, Narayanswamy Building, Kadubeesanahalli Bridge, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>12.9371973</v>
+        <v>12.9394098</v>
       </c>
       <c r="C162" t="n">
-        <v>77.70246539999999</v>
+        <v>77.69515729999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>89/1, Tulasi Theater Road, Near SBR Palace, Marathahalli, Bangalore</t>
+          <t>90/4, Above Sony Centre, Opposite Park Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>12.9489645</v>
+        <v>12.9502139</v>
       </c>
       <c r="C163" t="n">
-        <v>77.6970553</v>
+        <v>77.69893209999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20/5, Narayanswamy Building, Kadubeesanahalli Bridge, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>Kadubeesanahalli, Near Aricent Technologies, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>12.9413014</v>
+        <v>12.9394137</v>
       </c>
       <c r="C164" t="n">
-        <v>77.63891215</v>
+        <v>77.6952031</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>90/4, Above Sony Centre, Opposite Park Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>94/2, Panathur Railway Station Road, Opp to JP Morgan (Outer Ring Road), Munnireddy Layout, Panathur, Bangalore</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>12.9502139</v>
+        <v>12.9409139</v>
       </c>
       <c r="C165" t="n">
-        <v>77.69893209999999</v>
+        <v>77.696234</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Kadubeesanahalli, Near Aricent Technologies, Marathahalli, Bangalore</t>
+          <t>89/1, Service Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12.94870905</v>
+        <v>12.9503914</v>
       </c>
       <c r="C166" t="n">
-        <v>77.62693209999999</v>
+        <v>77.69867599999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>94/2, Panathur Railway Station Road, Opp to JP Morgan (Outer Ring Road), Munnireddy Layout, Panathur, Bangalore</t>
+          <t>88, KBR Complex, More Mega Store, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>12.9414859</v>
+        <v>12.9644555</v>
       </c>
       <c r="C167" t="n">
-        <v>77.70118705000002</v>
+        <v>77.58376749999999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>89/1, Service Road, Marathahalli, Bangalore</t>
+          <t>Panathur Main Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>12.9503914</v>
+        <v>12.9371558</v>
       </c>
       <c r="C168" t="n">
-        <v>77.69867599999999</v>
+        <v>77.7023374</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>88, KBR Complex, More Mega Store, Marathahalli, Bangalore</t>
+          <t>127, Kadubisannhalli, Panathur Main Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>12.9349624</v>
+        <v>12.9324386</v>
       </c>
       <c r="C169" t="n">
-        <v>77.63299555</v>
+        <v>77.7081077</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Panathur Main Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>Ground Floor, Vims Hospital Buidling, Opposite to More, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>12.9371558</v>
+        <v>12.9483018</v>
       </c>
       <c r="C170" t="n">
-        <v>77.70233739999999</v>
+        <v>77.69946519999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>127, Kadubisannhalli, Panathur Main Road, Marathahalli, Bangalore</t>
+          <t>77 Town Center, Yemalur Road, Marathahalli Village, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>12.94403465</v>
+        <v>12.9486582</v>
       </c>
       <c r="C171" t="n">
-        <v>77.70042815000001</v>
+        <v>77.6899712</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ground Floor, Vims Hospital Buidling, Opposite to More, Marathahalli, Bangalore</t>
+          <t>Near Madurai Idly, SGR Dental College Road, CKB Layout, Chandra Layout, Marathahalli, Bengalore</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>12.9483018</v>
+        <v>12.9499411</v>
       </c>
       <c r="C172" t="n">
-        <v>77.69946519999999</v>
+        <v>77.70067330000001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>77 Town Center, Yemalur Road, Marathahalli Village, Marathahalli, Bangalore</t>
+          <t>Ground Floor, More Megastore, Service Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>12.9486582</v>
+        <v>12.9482807</v>
       </c>
       <c r="C173" t="n">
-        <v>77.6899712</v>
+        <v>77.6983956</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Near Madurai Idly, SGR Dental College Road, CKB Layout, Chandra Layout, Marathahalli, Bengalore</t>
+          <t>88, Outer Ring Road, Next To More Mega Store, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>12.9578141</v>
+        <v>12.9486437</v>
       </c>
       <c r="C174" t="n">
-        <v>77.6708488</v>
+        <v>77.6996774</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ground Floor, More Megastore, Service Road, Marathahalli, Bangalore</t>
+          <t>88, 1st Floor, VIMS Hospital Building, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>12.953321</v>
+        <v>12.9483018</v>
       </c>
       <c r="C175" t="n">
-        <v>77.6428858</v>
+        <v>77.69946519999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>88, Outer Ring Road, Next To More Mega Store, Marathahalli, Bangalore</t>
+          <t>Ikon Building, Next to Sony Centre, Outer Ring Road, Marathahalli</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>12.9349624</v>
+        <v>13.0274976</v>
       </c>
       <c r="C176" t="n">
-        <v>77.63336939999999</v>
+        <v>77.63458159999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>88, 1st Floor, VIMS Hospital Building, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>3, Srinivasa Nilayam, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>12.945756</v>
+        <v>12.9348385</v>
       </c>
       <c r="C177" t="n">
-        <v>77.69252274999998</v>
+        <v>77.7011844</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Ikon Building, Next to Sony Centre, Outer Ring Road, Marathahalli</t>
+          <t>First Floor, Raja Ikon, Opposite Hotel Radisson Blu, Near Marathahali Bridge, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>12.9538697</v>
+        <v>12.9493355</v>
       </c>
       <c r="C178" t="n">
-        <v>77.69257330000001</v>
+        <v>77.69980409999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3, Srinivasa Nilayam, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
+          <t>Shop 217, 2nd main road, Kadubeesanahalli Croma, Back Side road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>12.93450175</v>
+        <v>12.973296</v>
       </c>
       <c r="C179" t="n">
-        <v>77.7053026</v>
+        <v>77.6957888</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>First Floor, Raja Ikon, Opposite Hotel Radisson Blu, Near Marathahali Bridge, Marathahalli, Bangalore</t>
+          <t>88, 3rd Floor, KBR Mall, Above More Mega Store, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>12.9502139</v>
+        <v>12.9577656</v>
       </c>
       <c r="C180" t="n">
-        <v>77.69893209999999</v>
+        <v>77.70117089999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Shop 217, 2nd main road, Kadubeesanahalli Croma, Back Side road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+          <t>1st Floor, NTR Royal Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>12.9582041</v>
+        <v>12.949365</v>
       </c>
       <c r="C181" t="n">
-        <v>77.69683295</v>
+        <v>77.6990172</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>88, 3rd Floor, KBR Mall, Above More Mega Store, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>20/5, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>12.9480643</v>
+        <v>12.9387303</v>
       </c>
       <c r="C182" t="n">
-        <v>77.6987082</v>
+        <v>77.6951242</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1st Floor, NTR Royal Plaza, Outer Ring Road, Marathahalli, Bangalore</t>
+          <t>Kadubeesanahalli, Marathahalli Outer Ring Road, Opposite JP Morgan, Varthur Hobli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>12.9479802</v>
+        <v>12.9641908</v>
       </c>
       <c r="C183" t="n">
-        <v>77.6954774</v>
+        <v>77.7019459</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20/5, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>Yemalur, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>12.9387303</v>
+        <v>12.9446164</v>
       </c>
       <c r="C184" t="n">
-        <v>77.6951242</v>
+        <v>77.6836756</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Kadubeesanahalli, Marathahalli Outer Ring Road, Opposite JP Morgan, Varthur Hobli, Marathahalli, Bangalore</t>
+          <t>Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,430 +2845,157 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Yemalur, Marathahalli, Bangalore</t>
+          <t>Shop 7, 8 Opposite, Airtel Express, Panathur Main Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>12.9449125</v>
+        <v>12.9324386</v>
       </c>
       <c r="C186" t="n">
-        <v>77.68451895000001</v>
+        <v>77.7081077</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Outer Ring Road, Opposite to JP Morgan, Kodbisanhalli, Marathahalli, Bangalore</t>
+          <t>Srinivasa Nilayam, Site 3, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>12.9336203</v>
+        <v>12.9351663</v>
       </c>
       <c r="C187" t="n">
-        <v>77.67122004999999</v>
+        <v>77.7008211</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Shop 7, 8 Opposite, Airtel Express, Panathur Main Road, Marathahalli, Bangalore</t>
+          <t>Salarpuria Sattva Aura, Kiosk 6, Foodworks Food Court, Block 11, Marathahalli - Sarjapur Outer Ring Road, Kaverappa Layout, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>12.96842755</v>
+        <v>12.935653</v>
       </c>
       <c r="C188" t="n">
-        <v>77.70200059999999</v>
+        <v>77.695588</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Srinivasa Nilayam, Site 3, Vidya Vikas School Road, Panathur New Extension, Kaverappa Layout, Marathahalli, Bangalore</t>
+          <t>23/4, Kariyammana Agrahara Road Kadubisinahalli, Prestige Tech Park Back Gate, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>12.9351663</v>
+        <v>12.948889</v>
       </c>
       <c r="C189" t="n">
-        <v>77.7008211</v>
+        <v>77.686014</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Salarpuria Sattva Aura, Kiosk 6, Foodworks Food Court, Block 11, Marathahalli - Sarjapur Outer Ring Road, Kaverappa Layout, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>Plot 302, Shop 1, 2nd Cross, Kadubesanahalli, Panathur Main Road, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>12.9364462</v>
+        <v>12.9399329</v>
       </c>
       <c r="C190" t="n">
-        <v>77.69328599999999</v>
+        <v>77.6979661</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>23/4, Kariyammana Agrahara Road Kadubisinahalli, Prestige Tech Park Back Gate, Marathahalli, Bangalore</t>
+          <t>6,Opposite Prestige Tech Park, Kadubeesanhalli Bus Stop, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>12.9395573</v>
+        <v>12.9432425</v>
       </c>
       <c r="C191" t="n">
-        <v>77.6898247</v>
+        <v>77.69190569999999</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Plot 302, Shop 1, 2nd Cross, Kadubesanahalli, Panathur Main Road, Marathahalli, Bangalore</t>
+          <t>18, Prakruthi Enclave, Panathur Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>12.9399348</v>
+        <v>12.9367813</v>
       </c>
       <c r="C192" t="n">
-        <v>77.6979518</v>
+        <v>77.71045889999999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>6,Opposite Prestige Tech Park, Kadubeesanhalli Bus Stop, Marathahalli, Bangalore</t>
+          <t>Shop 217, 2nd Main Road Kadubeesanahalli Croma Back Side Road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>12.9396012</v>
+        <v>12.973296</v>
       </c>
       <c r="C193" t="n">
-        <v>77.6890901</v>
+        <v>77.6957888</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>18, Prakruthi Enclave, Panathur Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+          <t>77 Town, Building No 3, Divya Shree Building, Yamalur Post, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>12.961431</v>
+        <v>12.9257475</v>
       </c>
       <c r="C194" t="n">
-        <v>77.6885372</v>
+        <v>77.6143829</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Shop 217, 2nd Main Road Kadubeesanahalli Croma Back Side Road Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+          <t>Near kaka singh dhaba, RMZ eco world backgate</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>12.9404534</v>
+        <v>12.918756</v>
       </c>
       <c r="C195" t="n">
-        <v>77.69771709999999</v>
+        <v>77.6851939</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>77 Town, Building No 3, Divya Shree Building, Yamalur Post, Marathahalli, Bangalore</t>
+          <t>41, Kadubeesanahalli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>12.95633619967463</v>
+        <v>12.9394137</v>
       </c>
       <c r="C196" t="n">
-        <v>77.63248419999998</v>
+        <v>77.6952031</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Near kaka singh dhaba, RMZ eco world backgate</t>
+          <t>5, KBR Mall Complex, Ground Floor, More Mega Store, Varthur Hobli, Marathahalli, Bangalore</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>12.918756</v>
+        <v>12.9482807</v>
       </c>
       <c r="C197" t="n">
-        <v>77.6851939</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>41, Kadubeesanahalli, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>12.94715705</v>
-      </c>
-      <c r="C198" t="n">
-        <v>77.69637379999999</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>5, KBR Mall Complex, Ground Floor, More Mega Store, Varthur Hobli, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>12.9482807</v>
-      </c>
-      <c r="C199" t="n">
         <v>77.6983956</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>82/3, Third Floor, Khata 866, Panathur Main Road, Bhoganahalli Cross, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>12.9365238</v>
-      </c>
-      <c r="C200" t="n">
-        <v>77.703783</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Embassy Tech Square Food Court, Cessna Tech Park, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>12.9365607</v>
-      </c>
-      <c r="C201" t="n">
-        <v>77.69424565</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>44, 3rd Cross, Marenahalli, 2nd Phase, JP Nagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>12.9135927</v>
-      </c>
-      <c r="C202" t="n">
-        <v>77.5873919</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>12.9137071</v>
-      </c>
-      <c r="C203" t="n">
-        <v>77.651623</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>12.9773122</v>
-      </c>
-      <c r="C204" t="n">
-        <v>77.635937</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2334, Aarush Arcade, 17th Cross, 1st Sector, HSR, Bangalore</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>12.9122542</v>
-      </c>
-      <c r="C205" t="n">
-        <v>77.63633109999999</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>1659, 27th Main Road, Sector 2, HSR Layout, HSR, Bangalore</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>12.9099715</v>
-      </c>
-      <c r="C206" t="n">
-        <v>77.6518782</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>31st Main, Near NIFT, Sector 1, HSR, Bangalore</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>12.9142263</v>
-      </c>
-      <c r="C207" t="n">
-        <v>77.64850279999999</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>12.939411</v>
-      </c>
-      <c r="C208" t="n">
-        <v>77.6956204</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>12.9784031</v>
-      </c>
-      <c r="C209" t="n">
-        <v>77.6428765</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>12.97061675</v>
-      </c>
-      <c r="C210" t="n">
-        <v>77.64247155</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>12.9812177</v>
-      </c>
-      <c r="C211" t="n">
-        <v>77.63836924999998</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>12.9642548</v>
-      </c>
-      <c r="C212" t="n">
-        <v>77.6396656</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>12.9582041</v>
-      </c>
-      <c r="C213" t="n">
-        <v>77.69683295</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>12.97229415</v>
-      </c>
-      <c r="C214" t="n">
-        <v>77.63645034999999</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>12.9493888</v>
-      </c>
-      <c r="C215" t="n">
-        <v>77.6990131</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2318, Sector 1, Near NIFT College, HSR, Bangalore</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>12.91207225</v>
-      </c>
-      <c r="C216" t="n">
-        <v>77.65214435</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>697, 12th Cross, 27th Main, 1st Sector, HSR, Bangalore</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>12.916185</v>
-      </c>
-      <c r="C217" t="n">
-        <v>77.65142400000001</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>915, 24th Main Road, 2nd Phase, Mayura Circle, JP Nagar, Bangalore</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>12.9102386</v>
-      </c>
-      <c r="C218" t="n">
-        <v>77.58589619999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/inter_iit_data/address_cache.xlsx
+++ b/data/inter_iit_data/address_cache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,6 +2998,253 @@
         <v>77.6983956</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>82/3, Third Floor, Khata 866, Panathur Main Road, Bhoganahalli Cross, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>12.9365238</v>
+      </c>
+      <c r="C198" t="n">
+        <v>77.703783</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Embassy Tech Square Food Court, Cessna Tech Park, Outer Ring Road, Kadubeesanahalli, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>12.9360704</v>
+      </c>
+      <c r="C199" t="n">
+        <v>77.6935663</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>44, 3rd Cross, Marenahalli, 2nd Phase, JP Nagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>12.9135927</v>
+      </c>
+      <c r="C200" t="n">
+        <v>77.5873919</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2617, 27th Main, Sector 1, Opposite CPWD Complex, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>12.9137071</v>
+      </c>
+      <c r="C201" t="n">
+        <v>77.651623</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>493, 13th Cross, 2nd Stage, Behind BDA Complex, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>12.9773122</v>
+      </c>
+      <c r="C202" t="n">
+        <v>77.635937</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2334, Aarush Arcade, 17th Cross, 1st Sector, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>12.9122542</v>
+      </c>
+      <c r="C203" t="n">
+        <v>77.63633109999999</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1659, 27th Main Road, Sector 2, HSR Layout, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>12.9099715</v>
+      </c>
+      <c r="C204" t="n">
+        <v>77.6518782</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>31st Main, Near NIFT, Sector 1, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>12.9114016</v>
+      </c>
+      <c r="C205" t="n">
+        <v>77.6535232</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>19/4 &amp; 27, Ground Floor, Indiqube Alpha, Panathur Junction, Kadubisanahalli, Sarjapur Outer Ring Road, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>12.9399931</v>
+      </c>
+      <c r="C206" t="n">
+        <v>77.6962218</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>322, Shalini Complex, CMH Road, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>12.9783143</v>
+      </c>
+      <c r="C207" t="n">
+        <v>77.637585</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ground Floor, Figure and Fitness Gym, ESI Hospital Road, Double Road, Stage 3, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>12.9711854</v>
+      </c>
+      <c r="C208" t="n">
+        <v>77.63690989999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>844, Binnamangala, 1st Stage, Near B.D.A Complex, Double Road, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>12.9821969</v>
+      </c>
+      <c r="C209" t="n">
+        <v>77.63688719999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3rd Cross, 2nd Stage, Domlur, Bangalore</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>12.9611795</v>
+      </c>
+      <c r="C210" t="n">
+        <v>77.5796242</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Shop 217, 2nd Main Road, Kadubeesanahalli Croma, Back Side Road, Near Kumbeshwara Temple Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>12.973296</v>
+      </c>
+      <c r="C211" t="n">
+        <v>77.6957888</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>68, Appareddy Palya, Near ESI Hospital, HAL 2nd Stage, Double Road, Indiranagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>12.9728579</v>
+      </c>
+      <c r="C212" t="n">
+        <v>77.63695440000001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>89/1, Monnekollal Village, Varthur Hobli, Outer Ring Road, Marathahalli, Bangalore</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>12.9577656</v>
+      </c>
+      <c r="C213" t="n">
+        <v>77.70117089999999</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2318, Sector 1, Near NIFT College, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>12.9175337</v>
+      </c>
+      <c r="C214" t="n">
+        <v>77.65045719999999</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>697, 12th Cross, 27th Main, 1st Sector, HSR, Bangalore</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>12.916185</v>
+      </c>
+      <c r="C215" t="n">
+        <v>77.65142400000001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>915, 24th Main Road, 2nd Phase, Mayura Circle, JP Nagar, Bangalore</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>12.9102386</v>
+      </c>
+      <c r="C216" t="n">
+        <v>77.58589619999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/inter_iit_data/address_cache.xlsx
+++ b/data/inter_iit_data/address_cache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1032"/>
+  <dimension ref="A1:C1115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13853,6 +13853,1085 @@
         <v>77.6324487</v>
       </c>
     </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>14, The Park 14/7, 7, Mahatma Gandhi Rd, Ashok Nagar, Bengaluru, Karnataka 560042</t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>12.9748319</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>77.61060800000001</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>XJ8R+969, Unnamed Road, HAL 2nd Stage, Doopanahalli, Indiranagar, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>12.973188</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>77.63237169999999</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>41/3, Mahatma Gandhi Rd, Yellappa Garden, Yellappa Chetty Layout, Sivanchetti Gardens, Bengaluru, Karnataka 560001</t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>12.97326</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>77.61966700000001</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>2nd Floor, Outer Ring Rd, HAL 2nd Stage, Indiranagar, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>13.0277782</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>77.6324487</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>23, Woods street, Ashok Nagar, Bangalore - 25 (Off brigade Road), Ashok, Nagar,, Bengaluru, Karnataka 560001</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>12.9671928</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>77.6081612</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>3rd Floor, No. 776, 100 Feet Rd, above Lakeview Milk Bar, HAL 2nd Stage, Doopanahalli, Indiranagar, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>12.9688199</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>77.64105499999999</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Comfort Gardenia, Flat #203, 68/D1, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>12.9721361</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>77.63160309999999</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>954, 12th Main Rd, HAL 2nd Stage, Appareddipalya, Indiranagar, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>12.9703216</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>77.6397614</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>XJ9X+CJQ, Jeevan Bima Nagar Main Rd, HAL 3rd Stage, Kodihalli, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>12.9677011</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>77.65462890000001</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>#14, 2nd Floor, 10th Main Rd, Above Peeto, HAL 3rd Stage, Jeevan Bima Nagar, Bengaluru, Karnataka 560075</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>12.9675129</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>77.6560494</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>ESI HOSPITAL ROAD 3302/L, 12th A Main Rd, Doopanahalli, Indiranagar, Bengaluru, Karnataka 560008</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>12.9711854</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>77.63690989999999</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>999, 9th Main Rd, Sector 7, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>12.911121</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>77.6349724</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>73, 27th Main Rd, Phase 3, Agara Village, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>12.9207539</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>77.650514</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>56-D, Wipro Avenue, Opp. Wipro Gate no. 5, Electronics City Phase 1, Electronics City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1046" t="n">
+        <v>12.8439472</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>77.6598017</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>670, 13th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>12.915993</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>77.65099499999999</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>m.p south, bus stop, Kodichikkanahalli,bombanhalli, Karnataka Kodichikkanahalli, b.b, next to Udupi grand Kodichikkanahalli, Bommanahalli, Bengaluru, Karnataka 560076</t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>12.8980641</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>77.61792629999999</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>NO 254/185/26, Baswer Sannidhi 2nd Main Road Neeladri layout Doddathoguru Electronic City Phase I, Doddathoguru, Electronics City Phase 1, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1049" t="n">
+        <v>12.8411679</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>77.6643814</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Velankani Drive, 43, Munirama Reddy, Electronics City Phase 1, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>12.8501234</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>77.65933559999999</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>GF, #780, 19th Main Rd, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>12.9127308</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>77.6448236</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Neeladri Nagar, Electronics City Phase 1, Electronic City, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>12.8390936</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>77.6471693</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>no .10 St no 306, Hulimangala Rd, near Sai baba temple, Neeladri Nagar, Electronics City Phase 1, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>12.8310716</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>77.6412478</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2, Anantha Nagar Rd, Phase 1, Kammasandra, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>12.8352603</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>77.69192219999999</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>#1086/A, Twin tulips 18th cross, 14th Main Rd, 3rd sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>12.9118413</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>77.6392171</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>17/N, 18th Cross Rd, Sector 3, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>12.9117507</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>77.6435784</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>417, 4th Floor, Rio Arcade, 27th Main Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>12.9190233</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>77.6518198</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>#1153, Ground Floor, Lakshmi Ganesh Building 24th Main, 22nd Cross, HSR Sector 2 Bangalore Karnataka 560102 IN, 24th Main Rd, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>12.9223731</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>77.64942529999999</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>WJG6+2M3, Tavarekere, Maruti Nagar, 1st Stage, BTM Layout, Bengaluru, Karnataka 560029</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>12.9233797</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>77.610349</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>13th, 1778, Cross, 19th Main Rd, Vanganahalli, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>12.9145286</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>77.6446952</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>WJ5J+CX4, Rajiv Gandhi Nagar, Sector 7, HSR Layout, Bengaluru, Karnataka 560068</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>12.9088622</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>77.6299858</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>Indian Oil Petrol bunk, #1552, 19th Main Rd, near Bengaluru, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>12.9211725</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>77.6451773</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>WJ7G+5R5, Muneswara Nagar, Sector 6, HSR Layout 5th Sector, Bengaluru, Karnataka 560068</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>12.911619</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>77.62782790000001</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2nd Cross Road, Muniswamy Layout, Phase 2, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>12.8517176</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>77.66895510000001</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Parika Restaurant, No 1086/A, Twin Tulips, 18th Cross, 14th main Road, Sector 3 Near, HSR Layout, Bengaluru, Karnataka 560061</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>12.911854</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>77.639122</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>WJ4V+QQX, Garden Layout, Sector 2, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>12.908942</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>77.6464534</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Neeladri Rd, Electronics City Phase 1, Doddathoguru, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>12.8408391</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>77.6506024</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>1558, 19th Main Rd, near Indian Oil Petrol bunk, Agara Village, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>12.92178</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>77.64519439999999</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>#1131, 17th Cross Rd, Sector 7, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>12.912456</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>77.63330739999999</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>L/139, 15th Cross Road, 5th Main Rd, Sector 6, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>12.9139106</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>77.63218499999999</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>18th Cross Rd, Sector 4, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>12.911988</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>77.64170009999999</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>No. 17, 17, 24th Main Rd, TMC Layout, 1st Phase, J. P. Nagar, Bengaluru, Karnataka 560078</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>12.9137178</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>77.5855907</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>150, 9th Main Rd, Sector 6, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>12.9128881</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>77.63535279999999</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>2341, 17th Cross Rd, opposite Gayathri Basaveswara Temple, 2nd Sector, Vanganahalli, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>12.9120502</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>77.6493437</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>VM22+CW2, Sri Lakshmi Narasimha Swamy Main Rd, near Godrej E-city apartment, Doddathoguru, Electronics City Phase 1, Doddathoguru, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>12.8510296</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>77.6490917</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>462, Outer Ring Rd, Opp. Fernhill Gardens Apartment, Teacher's Colony, Santhosapuram, Sector 6, HSR Layout, Bengaluru, Karnataka 560034</t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>12.9170235</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>77.629463</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>Bus Stand, Hosur Rd, Singasandra, Bengaluru, Karnataka 566068</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>12.8801357</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>77.6454227</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>15, 15th A Cross Rd, Vinayaka Nagar, Muneswara Nagar, Sector 6, HSR Layout, Bengaluru, Karnataka 560068</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>12.9135938</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>77.6268834</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>#1716 Opposite to BSR Mantrayala 27th Cross Road, 19th Main Rd, Sector 2, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>12.9038302</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>77.64475299999999</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Konappana Agrahara, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>12.854899</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>77.6679292</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>15th c main, 15th Cross Rd, 4th sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>12.9142087</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>77.64113279999999</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>17/N, 18th Cross Rd, near Helloo Delhi, Sector 3, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>12.9117507</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>77.6435784</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>1st Floor, NBK COMPLEX, 24th Main Rd, HSR layout Sector 2, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>12.9098915</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>77.64917699999999</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>Shop No. 3, Sector 7, 17th Cross Road, 14th Main Road, HSR Layout, near BDA Complex, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>12.9123163</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>77.6380649</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>2324, 17th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka 560012</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>12.9122458</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>77.63170049999999</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>710, Varthur Rd, Whitefield, Ramagondanahalli, Brookefield, Bengaluru, Karnataka 560066</t>
+        </is>
+      </c>
+      <c r="B1086" t="n">
+        <v>12.9561792</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>77.72152489999999</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>RMXC+6QW, Muniswamy Layout, Phase 2, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>12.848717</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>77.6727463</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>79, 1st Main Rd, Vinayaka Nagar, Muneswara Nagar, Sector 6, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1088" t="n">
+        <v>12.9132549</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>77.62738</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>3rd and 4th floor, Sector 3 1085, 14th Main Road, 18th Cross Rd, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1089" t="n">
+        <v>12.9165469</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>77.63811509999999</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>No:7, Neeladri Rd, next to HDFC Bank, Karuna Nagar, Electronics City Phase 1, Vittasandra, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1090" t="n">
+        <v>12.8409126</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>77.65077340000001</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>AECS Layout - A Block, AECS Layout, Singasandra, Bengaluru, Karnataka 560068</t>
+        </is>
+      </c>
+      <c r="B1091" t="n">
+        <v>12.8864828</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>77.6493488</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>bengaluru, Hosur Rd, Konappana Agrahara, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>12.8578094</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>77.66289570000001</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>27th Main Road, HSR Layout, above More Supermarket, PWD Quarters, 1st Sector, H, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>12.9119893</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>77.651832</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>WJ4X+VMW, 24th Main Rd, Garden Layout, BDA Layout, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>12.9050961</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>77.64895989999999</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>1554, Ground Floor, Sector - 1, 19th Main Rd, Sector 3, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>12.9090177</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>77.64446719999999</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>1035, 24th Main Rd, Agara Village, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>12.9185589</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>77.649373</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>VMX3+PJP, Somasundarapalya Main Rd, ITI Layout, Sector 7, Reliable Tranquil Layout, Bengaluru, Karnataka 560068</t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>12.8994721</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>77.64861879999999</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>L-81, 15th Cross Rd, Sector 6, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>12.9139501</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>77.6311393</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Sri Upahara Veg, 153, 5th Main Rd, Rajiv Gandhi Nagar, Sector 7, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>12.908231</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>77.6324115</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>552, 2nd Main Rd, Teacher's Colony, Santhosapuram, 1st Block Koramangala, HSR Layout 5th Sector, Bengaluru, Karnataka 560034</t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>12.9179194</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>77.62888479999999</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>178, 31st Main Rd, PWD Quarters, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>12.9110449</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>77.6533791</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>9th Main Road, 219/2, 15th A Cross Road, Sector 6, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>12.9133034</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>77.63505189999999</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>WJ5V+86J, 18th Main Rd, Sector 3, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>12.9085314</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>77.6430776</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2, Devarachikkanahalli Main Rd, Hongasandra, Bengaluru, Karnataka 560068</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>12.8999091</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>77.62242929999999</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2340, 17th Cross, 24th Main, Opp to Basaveswara Gayatri temple, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>12.9116972</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>77.64771829999999</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>No 20, Royal Placid, Phase 2, Haralur Main Rd, opp. to Dominos Pizza, Haralur, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>12.8963101</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>77.65792909999999</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>#2 19th Main, 27th Cross Rd, opp Nagarjuna Apt, 2nd Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1107" t="n">
+        <v>12.9079027</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>77.6447364</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>696-697, 12th Cross Rd, 1st Sector, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1108" t="n">
+        <v>12.9161819</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>77.65131699999999</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>106/4, Ground Floor, Neeladri Nagar, Adjacent to Himagiri Towers, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1109" t="n">
+        <v>12.8428899</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>77.64537949999999</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>WJ4X+JGW, 25th B Cross Rd, Garden Layout, Sector 2, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1110" t="n">
+        <v>12.9064895</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>77.6483996</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>Plot No.1158, 5th Main, 20th Cross Rd, Sector 7, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>12.911103</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>77.632665</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>Next to Smilee Green, 19th km Off Hosur Road, Goolimangala, village, Huskur Rd, Electronic City, Bengaluru, Karnataka 560099</t>
+        </is>
+      </c>
+      <c r="B1112" t="n">
+        <v>12.8482369</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>77.6947387</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>#154, Bluemoon Log-Inn, 9th Main Rd, Sector 6th, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1113" t="n">
+        <v>12.9132052</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>77.6353421</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>177, 9th Main Rd, Sector 7, HSR Layout, Bengaluru, Karnataka 560102</t>
+        </is>
+      </c>
+      <c r="B1114" t="n">
+        <v>12.9103627</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>77.6352436</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>Star Pg, Shop no. 1, 4th Cross Road, Neeladari Nagar, Neeladri Nagar, Electronics City Phase 1, Shikaripalya, Electronic City, Bengaluru, Karnataka 560100</t>
+        </is>
+      </c>
+      <c r="B1115" t="n">
+        <v>12.8328458</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>77.64957319999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
